--- a/5-9/5-9.xlsx
+++ b/5-9/5-9.xlsx
@@ -111,13 +111,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -143,33 +143,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,16 +172,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,9 +196,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,7 +206,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,28 +252,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,7 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,187 +281,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,69 +486,6 @@
       </top>
       <bottom style="thick">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,6 +516,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -595,10 +595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,133 +607,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,8 +1085,8 @@
   <sheetPr/>
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W3:W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1230,30 +1230,43 @@
         <f>($L$12-L3)/$E$13*8*1000/3</f>
         <v>110.762070971495</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="N3" s="5">
+        <f>0.234</f>
+        <v>0.234</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.238</v>
+      </c>
       <c r="P3" s="5">
         <f>(O3+N3)/2</f>
-        <v>0</v>
+        <v>0.236</v>
       </c>
       <c r="Q3" s="6">
-        <f>(P3*0.27351-0.01216)/3*1000</f>
-        <v>-4.05333333333333</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
+        <f t="shared" ref="Q3:Q6" si="0">(P3*0.27351-0.01216)/3*1000</f>
+        <v>17.4627866666667</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0.063</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0.063</v>
+      </c>
       <c r="T3" s="7">
         <f>(S3+R3)/2</f>
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="U3" s="7">
         <f>(108.1*T3-0.2735)/1</f>
-        <v>-0.2735</v>
-      </c>
-      <c r="V3" s="2"/>
+        <v>6.5368</v>
+      </c>
+      <c r="V3" s="2">
+        <v>6.7</v>
+      </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="9"/>
+      <c r="Y3" s="9">
+        <v>27.6</v>
+      </c>
     </row>
     <row r="4" ht="15.9" spans="1:25">
       <c r="A4" s="2" t="s">
@@ -1269,7 +1282,7 @@
         <v>16.4</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E13" si="0">D4-C4</f>
+        <f t="shared" ref="E4:E13" si="1">D4-C4</f>
         <v>1.2</v>
       </c>
       <c r="F4" s="2">
@@ -1279,7 +1292,7 @@
         <v>17.61</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H12" si="1">(G4-F4)</f>
+        <f t="shared" ref="H4:H12" si="2">(G4-F4)</f>
         <v>1.21</v>
       </c>
       <c r="I4" s="2">
@@ -1289,41 +1302,53 @@
         <v>18.7</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K12" si="2">J4-I4</f>
+        <f t="shared" ref="K4:K12" si="3">J4-I4</f>
         <v>1.09</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" ref="L4:L12" si="3">(K4+H4+E4)/3</f>
+        <f t="shared" ref="L4:L12" si="4">(K4+H4+E4)/3</f>
         <v>1.16666666666667</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" ref="M4:M11" si="4">($L$12-L4)/$E$13*8*1000/3</f>
+        <f t="shared" ref="M4:M11" si="5">($L$12-L4)/$E$13*8*1000/3</f>
         <v>55.8464223385689</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="N4" s="5">
+        <v>0.054</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.051</v>
+      </c>
       <c r="P4" s="5">
-        <f t="shared" ref="P4:P10" si="5">(O4+N4)/2</f>
-        <v>0</v>
+        <f t="shared" ref="P4:P11" si="6">(O4+N4)/2</f>
+        <v>0.0525</v>
       </c>
       <c r="Q4" s="6">
-        <f t="shared" ref="Q4:Q10" si="6">(P4*0.27351-0.01216)/3*1000</f>
-        <v>-4.05333333333333</v>
-      </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
+        <f t="shared" si="0"/>
+        <v>0.733091666666666</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0.103</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0.103</v>
+      </c>
       <c r="T4" s="7">
-        <f t="shared" ref="T4:T10" si="7">(S4+R4)/2</f>
-        <v>0</v>
+        <f t="shared" ref="T4:T11" si="7">(S4+R4)/2</f>
+        <v>0.103</v>
       </c>
       <c r="U4" s="7">
-        <f t="shared" ref="U4:U10" si="8">(108.1*T4-0.2735)/1</f>
-        <v>-0.2735</v>
-      </c>
-      <c r="V4" s="2"/>
+        <f t="shared" ref="U4:U11" si="8">(108.1*T4-0.2735)/1</f>
+        <v>10.8608</v>
+      </c>
+      <c r="V4" s="2">
+        <v>6.69</v>
+      </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="9"/>
+      <c r="Y4" s="9">
+        <v>27.7</v>
+      </c>
     </row>
     <row r="5" ht="15.9" spans="1:25">
       <c r="A5" s="2" t="s">
@@ -1339,7 +1364,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="F5" s="2">
@@ -1349,7 +1374,7 @@
         <v>21.27</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.27</v>
       </c>
       <c r="I5" s="2">
@@ -1359,41 +1384,53 @@
         <v>22.5</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.23</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.26666666666667</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.9232111692844</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="N5" s="5">
+        <v>0.045</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.044</v>
+      </c>
       <c r="P5" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.0445</v>
       </c>
       <c r="Q5" s="6">
-        <f t="shared" si="6"/>
-        <v>-4.05333333333333</v>
-      </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
+        <f t="shared" si="0"/>
+        <v>0.00373166666666561</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0.097</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0.097</v>
+      </c>
       <c r="T5" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.097</v>
       </c>
       <c r="U5" s="7">
         <f t="shared" si="8"/>
-        <v>-0.2735</v>
-      </c>
-      <c r="V5" s="2"/>
+        <v>10.2122</v>
+      </c>
+      <c r="V5" s="2">
+        <v>6.68</v>
+      </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="9"/>
+      <c r="Y5" s="9">
+        <v>27.6</v>
+      </c>
     </row>
     <row r="6" ht="15.9" spans="1:25">
       <c r="A6" s="2" t="s">
@@ -1409,7 +1446,7 @@
         <v>3.1</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="F6" s="2">
@@ -1419,7 +1456,7 @@
         <v>4.38</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.28</v>
       </c>
       <c r="I6" s="2">
@@ -1429,41 +1466,53 @@
         <v>5.73</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.35</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.31</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.8231529959279</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="N6" s="5">
+        <v>0.046</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.046</v>
+      </c>
       <c r="P6" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.046</v>
       </c>
       <c r="Q6" s="6">
-        <f t="shared" si="6"/>
-        <v>-4.05333333333333</v>
-      </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+        <f t="shared" si="0"/>
+        <v>0.140486666666666</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0.091</v>
+      </c>
       <c r="T6" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0905</v>
       </c>
       <c r="U6" s="7">
         <f t="shared" si="8"/>
-        <v>-0.2735</v>
-      </c>
-      <c r="V6" s="2"/>
+        <v>9.50955</v>
+      </c>
+      <c r="V6" s="2">
+        <v>6.66</v>
+      </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="9"/>
+      <c r="Y6" s="9">
+        <v>27.6</v>
+      </c>
     </row>
     <row r="7" ht="15.9" spans="1:25">
       <c r="A7" s="2" t="s">
@@ -1479,7 +1528,7 @@
         <v>6.95</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.22</v>
       </c>
       <c r="F7" s="2">
@@ -1489,7 +1538,7 @@
         <v>8.2</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
       <c r="I7" s="2">
@@ -1499,41 +1548,53 @@
         <v>9.5</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.25666666666667</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.7155322862129</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="N7" s="5">
+        <v>0.051</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.053</v>
+      </c>
       <c r="P7" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.052</v>
       </c>
       <c r="Q7" s="6">
-        <f t="shared" si="6"/>
-        <v>-4.05333333333333</v>
-      </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
+        <f t="shared" ref="Q4:Q11" si="9">(P7*0.27351-0.01216)/3*1000</f>
+        <v>0.687506666666666</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0.091</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0.098</v>
+      </c>
       <c r="T7" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0945</v>
       </c>
       <c r="U7" s="7">
         <f t="shared" si="8"/>
-        <v>-0.2735</v>
-      </c>
-      <c r="V7" s="2"/>
+        <v>9.94195</v>
+      </c>
+      <c r="V7" s="2">
+        <v>6.64</v>
+      </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="9"/>
+      <c r="Y7" s="9">
+        <v>27.6</v>
+      </c>
     </row>
     <row r="8" ht="30.3" spans="1:25">
       <c r="A8" s="2" t="s">
@@ -1549,7 +1610,7 @@
         <v>10.82</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.32</v>
       </c>
       <c r="F8" s="2">
@@ -1559,7 +1620,7 @@
         <v>12.15</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.33</v>
       </c>
       <c r="I8" s="2">
@@ -1569,7 +1630,7 @@
         <v>13.5</v>
       </c>
       <c r="K8">
-        <f>J8-I8</f>
+        <f t="shared" si="3"/>
         <v>1.35</v>
       </c>
       <c r="L8" s="2">
@@ -1577,33 +1638,45 @@
         <v>1.325</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.6346713205351</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+      <c r="N8" s="5">
+        <v>0.046</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.045</v>
+      </c>
       <c r="P8" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.0455</v>
       </c>
       <c r="Q8" s="6">
-        <f t="shared" si="6"/>
-        <v>-4.05333333333333</v>
-      </c>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
+        <f t="shared" si="9"/>
+        <v>0.094901666666666</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0.092</v>
+      </c>
       <c r="T8" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.091</v>
       </c>
       <c r="U8" s="7">
         <f t="shared" si="8"/>
-        <v>-0.2735</v>
-      </c>
-      <c r="V8" s="2"/>
+        <v>9.5636</v>
+      </c>
+      <c r="V8" s="2">
+        <v>6.63</v>
+      </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="9"/>
+      <c r="Y8" s="9">
+        <v>27.9</v>
+      </c>
     </row>
     <row r="9" ht="30.3" spans="1:25">
       <c r="A9" s="2" t="s">
@@ -1619,7 +1692,7 @@
         <v>14.8</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="F9" s="2">
@@ -1629,7 +1702,7 @@
         <v>16.19</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.39</v>
       </c>
       <c r="I9" s="2">
@@ -1639,41 +1712,53 @@
         <v>17.4</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.21</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.6154741128563</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="N9" s="5">
+        <v>0.058</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.057</v>
+      </c>
       <c r="P9" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.0575</v>
       </c>
       <c r="Q9" s="6">
-        <f t="shared" si="6"/>
-        <v>-4.05333333333333</v>
-      </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
+        <f t="shared" si="9"/>
+        <v>1.18894166666667</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0.084</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0.086</v>
+      </c>
       <c r="T9" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.085</v>
       </c>
       <c r="U9" s="7">
         <f t="shared" si="8"/>
-        <v>-0.2735</v>
-      </c>
-      <c r="V9" s="2"/>
+        <v>8.915</v>
+      </c>
+      <c r="V9" s="2">
+        <v>6.62</v>
+      </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="9"/>
+      <c r="Y9" s="9">
+        <v>27.6</v>
+      </c>
     </row>
     <row r="10" ht="30.3" spans="1:25">
       <c r="A10" s="2" t="s">
@@ -1689,7 +1774,7 @@
         <v>18.7</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="F10" s="2">
@@ -1699,7 +1784,7 @@
         <v>19.9</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
       <c r="I10" s="2">
@@ -1709,41 +1794,53 @@
         <v>21.16</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.26</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.25333333333333</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.6463059918557</v>
       </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="N10" s="5">
+        <v>0.061</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.062</v>
+      </c>
       <c r="P10" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.0615</v>
       </c>
       <c r="Q10" s="6">
-        <f t="shared" si="6"/>
-        <v>-4.05333333333333</v>
-      </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
+        <f t="shared" si="9"/>
+        <v>1.55362166666667</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0.102</v>
+      </c>
+      <c r="S10" s="7">
+        <v>0.1</v>
+      </c>
       <c r="T10" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="U10" s="7">
         <f t="shared" si="8"/>
-        <v>-0.2735</v>
-      </c>
-      <c r="V10" s="2"/>
+        <v>10.6446</v>
+      </c>
+      <c r="V10" s="2">
+        <v>6.61</v>
+      </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="9"/>
+      <c r="Y10" s="9">
+        <v>28.4</v>
+      </c>
     </row>
     <row r="11" ht="15.9" spans="1:25">
       <c r="A11" s="2"/>
@@ -1757,7 +1854,7 @@
         <v>1.8</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.11</v>
       </c>
       <c r="F11" s="2">
@@ -1767,7 +1864,7 @@
         <v>2.99</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.19</v>
       </c>
       <c r="I11" s="2">
@@ -1777,29 +1874,53 @@
         <v>4.2</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.21</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.17</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.9156486329261</v>
       </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="2"/>
+      <c r="N11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q11" s="6">
+        <f t="shared" si="9"/>
+        <v>14.1806666666667</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0.022</v>
+      </c>
+      <c r="S11" s="7">
+        <v>0.023</v>
+      </c>
+      <c r="T11" s="7">
+        <f t="shared" si="7"/>
+        <v>0.0225</v>
+      </c>
+      <c r="U11" s="7">
+        <f t="shared" si="8"/>
+        <v>2.15875</v>
+      </c>
+      <c r="V11" s="2">
+        <v>6.69</v>
+      </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="9"/>
+      <c r="Y11" s="9">
+        <v>28.5</v>
+      </c>
     </row>
     <row r="12" ht="15.9" spans="1:25">
       <c r="A12" s="2"/>
@@ -1813,7 +1934,7 @@
         <v>5.6</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
       <c r="F12" s="2">
@@ -1823,7 +1944,7 @@
         <v>6.93</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.33</v>
       </c>
       <c r="I12" s="2">
@@ -1833,11 +1954,11 @@
         <v>8.3</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.37</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.36666666666667</v>
       </c>
       <c r="M12" s="2"/>
@@ -1866,7 +1987,7 @@
         <v>12.29</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.55</v>
       </c>
       <c r="F13" s="2"/>
